--- a/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.06004931113056</v>
+        <v>90.20956184911931</v>
       </c>
       <c r="D2" t="n">
-        <v>2.022067754704327</v>
+        <v>1.708125402773658</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.33817519338363</v>
+        <v>88.78508090749706</v>
       </c>
       <c r="D3" t="n">
-        <v>1.919559528756425</v>
+        <v>1.83591156067324</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.16652587674135</v>
+        <v>87.78348423676192</v>
       </c>
       <c r="D4" t="n">
-        <v>1.930027155566679</v>
+        <v>2.069426692231278</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.13159479923499</v>
+        <v>87.05093924755987</v>
       </c>
       <c r="D5" t="n">
-        <v>1.920953394054412</v>
+        <v>1.736038439905057</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.9074102038676</v>
+        <v>85.76056914235575</v>
       </c>
       <c r="D6" t="n">
-        <v>1.962242811925152</v>
+        <v>2.055978586231315</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.86004032769887</v>
+        <v>85.12135404397038</v>
       </c>
       <c r="D7" t="n">
-        <v>1.783831886170325</v>
+        <v>1.846692750436107</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.51719414336168</v>
+        <v>84.08165253226895</v>
       </c>
       <c r="D8" t="n">
-        <v>1.981975894256258</v>
+        <v>1.894127034066508</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.0857297744848</v>
+        <v>82.93388896117867</v>
       </c>
       <c r="D9" t="n">
-        <v>1.926790868449149</v>
+        <v>1.957941589384423</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.04922858712943</v>
+        <v>81.97305658984702</v>
       </c>
       <c r="D10" t="n">
-        <v>1.832853718432481</v>
+        <v>2.245671288510851</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.89200617063105</v>
+        <v>80.96304966176264</v>
       </c>
       <c r="D11" t="n">
-        <v>2.117750073692427</v>
+        <v>1.920576756747949</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.95375524378231</v>
+        <v>79.87063111076924</v>
       </c>
       <c r="D12" t="n">
-        <v>1.841269187444751</v>
+        <v>1.904000531824168</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.01887218720114</v>
+        <v>79.14434219297465</v>
       </c>
       <c r="D13" t="n">
-        <v>2.153701488034323</v>
+        <v>1.958239490172318</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.71100799929768</v>
+        <v>77.80002843758365</v>
       </c>
       <c r="D14" t="n">
-        <v>2.008430496238091</v>
+        <v>1.984667070860989</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.29230191856259</v>
+        <v>76.88187628436368</v>
       </c>
       <c r="D15" t="n">
-        <v>1.977654666885738</v>
+        <v>1.979656586257904</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.83578823220522</v>
+        <v>75.99290619136936</v>
       </c>
       <c r="D16" t="n">
-        <v>1.957032248244096</v>
+        <v>2.1387675170878</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.18213334230899</v>
+        <v>75.22272855805417</v>
       </c>
       <c r="D17" t="n">
-        <v>2.050454839831964</v>
+        <v>2.103302205399782</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.30819361955396</v>
+        <v>73.69938647407501</v>
       </c>
       <c r="D18" t="n">
-        <v>1.878344520924721</v>
+        <v>1.866047546273467</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.22259086928709</v>
+        <v>73.17599712407407</v>
       </c>
       <c r="D19" t="n">
-        <v>1.95879031694261</v>
+        <v>1.950236022317459</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.05094727358133</v>
+        <v>71.95000125888826</v>
       </c>
       <c r="D20" t="n">
-        <v>1.965167220552077</v>
+        <v>2.061282629591555</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.46135074303072</v>
+        <v>70.96418312256067</v>
       </c>
       <c r="D21" t="n">
-        <v>1.889309936552022</v>
+        <v>2.133088768724666</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.02256801866866</v>
+        <v>70.1964139517132</v>
       </c>
       <c r="D22" t="n">
-        <v>2.03288653086685</v>
+        <v>2.098595271259617</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.45599171117041</v>
+        <v>68.94842175657855</v>
       </c>
       <c r="D23" t="n">
-        <v>1.984814321001346</v>
+        <v>2.068880626438449</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.19128319623449</v>
+        <v>67.72694573285288</v>
       </c>
       <c r="D24" t="n">
-        <v>1.990764063337913</v>
+        <v>2.120028751668645</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.94820138357048</v>
+        <v>67.18881230110232</v>
       </c>
       <c r="D25" t="n">
-        <v>2.051811403291973</v>
+        <v>2.194236362879523</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.12115569063718</v>
+        <v>66.21621024051365</v>
       </c>
       <c r="D26" t="n">
-        <v>1.857404179677889</v>
+        <v>2.079848214235084</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.95664019082196</v>
+        <v>65.27512543308961</v>
       </c>
       <c r="D27" t="n">
-        <v>2.123619487336262</v>
+        <v>2.186666190086166</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.65553336558475</v>
+        <v>63.97932229738805</v>
       </c>
       <c r="D28" t="n">
-        <v>2.226569431453708</v>
+        <v>1.86922147247757</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.34446443956163</v>
+        <v>63.15413628747911</v>
       </c>
       <c r="D29" t="n">
-        <v>2.056821732529024</v>
+        <v>2.09907781515271</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.04574649636915</v>
+        <v>62.02792973458834</v>
       </c>
       <c r="D30" t="n">
-        <v>2.002363598768987</v>
+        <v>1.901056572397535</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.90381991894054</v>
+        <v>60.7851912402154</v>
       </c>
       <c r="D31" t="n">
-        <v>2.168068585470715</v>
+        <v>1.96825388018646</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.85565214829941</v>
+        <v>59.9734103847677</v>
       </c>
       <c r="D32" t="n">
-        <v>2.009715056672495</v>
+        <v>2.078341674153545</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.76164447990102</v>
+        <v>59.27098225800884</v>
       </c>
       <c r="D33" t="n">
-        <v>1.933904460061558</v>
+        <v>2.23896744400458</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.81713308181322</v>
+        <v>58.22102885567704</v>
       </c>
       <c r="D34" t="n">
-        <v>1.870241226647684</v>
+        <v>2.114007121600295</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.76109942693149</v>
+        <v>57.00367074040687</v>
       </c>
       <c r="D35" t="n">
-        <v>2.005989119878605</v>
+        <v>2.282141234595652</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.9821690290244</v>
+        <v>56.13566541583237</v>
       </c>
       <c r="D36" t="n">
-        <v>2.167053283681581</v>
+        <v>1.827926731000893</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.00339655989466</v>
+        <v>54.9278119118196</v>
       </c>
       <c r="D37" t="n">
-        <v>1.898995373991391</v>
+        <v>2.284179937775884</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.8065521442878</v>
+        <v>53.86510084431571</v>
       </c>
       <c r="D38" t="n">
-        <v>1.947728039395001</v>
+        <v>2.026869887997258</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.87927899804153</v>
+        <v>52.99117304899167</v>
       </c>
       <c r="D39" t="n">
-        <v>1.900049166830615</v>
+        <v>1.935168398674469</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.84311990691756</v>
+        <v>52.35810293138777</v>
       </c>
       <c r="D40" t="n">
-        <v>1.802118455582173</v>
+        <v>1.998974884546342</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.99206719762047</v>
+        <v>50.68933489718957</v>
       </c>
       <c r="D41" t="n">
-        <v>1.970081255908425</v>
+        <v>2.05384558125341</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.13903604210135</v>
+        <v>50.24550071643853</v>
       </c>
       <c r="D42" t="n">
-        <v>2.332363722949764</v>
+        <v>1.860132085809517</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.94272260704042</v>
+        <v>48.7671444047632</v>
       </c>
       <c r="D43" t="n">
-        <v>1.808250448005869</v>
+        <v>2.254316188916407</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.08844674608035</v>
+        <v>47.79252028052402</v>
       </c>
       <c r="D44" t="n">
-        <v>1.933544959765754</v>
+        <v>2.188600235669247</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.92253674852437</v>
+        <v>47.34271757071861</v>
       </c>
       <c r="D45" t="n">
-        <v>1.957111402527153</v>
+        <v>2.000727271384371</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.72526654200841</v>
+        <v>45.56908377871208</v>
       </c>
       <c r="D46" t="n">
-        <v>2.293458542299417</v>
+        <v>2.289347163283523</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.08173855931993</v>
+        <v>44.80160157165008</v>
       </c>
       <c r="D47" t="n">
-        <v>2.260800038039486</v>
+        <v>2.064765672956252</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.7593832007856</v>
+        <v>43.77073550934882</v>
       </c>
       <c r="D48" t="n">
-        <v>2.139680531587584</v>
+        <v>2.327780235724351</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.04757848345021</v>
+        <v>42.57794768801793</v>
       </c>
       <c r="D49" t="n">
-        <v>2.24728198533568</v>
+        <v>2.023506004110809</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.58149858955974</v>
+        <v>41.77927306514808</v>
       </c>
       <c r="D50" t="n">
-        <v>1.999863499557711</v>
+        <v>2.262543567447987</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.33857522221429</v>
+        <v>41.20100025805325</v>
       </c>
       <c r="D51" t="n">
-        <v>2.08323093554138</v>
+        <v>1.962450210321053</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.96011407180816</v>
+        <v>39.96117979259036</v>
       </c>
       <c r="D52" t="n">
-        <v>2.2164114201969</v>
+        <v>2.250260161419931</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.76295551309749</v>
+        <v>38.9872600375331</v>
       </c>
       <c r="D53" t="n">
-        <v>2.26570614500847</v>
+        <v>2.049584606057677</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.89152507882722</v>
+        <v>38.03018660784682</v>
       </c>
       <c r="D54" t="n">
-        <v>2.157210437785309</v>
+        <v>1.941301851405436</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.4453633071039</v>
+        <v>36.82907370703908</v>
       </c>
       <c r="D55" t="n">
-        <v>2.323023656582321</v>
+        <v>2.041301779081454</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.09779936510688</v>
+        <v>36.24900275429736</v>
       </c>
       <c r="D56" t="n">
-        <v>2.036634377676818</v>
+        <v>2.532469441204124</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.02197781373049</v>
+        <v>34.8236444696413</v>
       </c>
       <c r="D57" t="n">
-        <v>2.037343075897058</v>
+        <v>2.320819839773548</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.30867547956886</v>
+        <v>34.03364025249513</v>
       </c>
       <c r="D58" t="n">
-        <v>2.114385829007691</v>
+        <v>2.196644843401113</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.60125992284686</v>
+        <v>33.02777344049513</v>
       </c>
       <c r="D59" t="n">
-        <v>2.266846591585753</v>
+        <v>2.076790671563377</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.89076417004441</v>
+        <v>32.23337367889854</v>
       </c>
       <c r="D60" t="n">
-        <v>2.045904893180678</v>
+        <v>2.225626483801892</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.62941367504825</v>
+        <v>30.92924851737942</v>
       </c>
       <c r="D61" t="n">
-        <v>2.060072767865187</v>
+        <v>1.979869672107944</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.82440381457822</v>
+        <v>30.00406671177957</v>
       </c>
       <c r="D62" t="n">
-        <v>1.992471187182729</v>
+        <v>2.301590926123885</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.81283249529331</v>
+        <v>29.10371115193488</v>
       </c>
       <c r="D63" t="n">
-        <v>2.106598378841695</v>
+        <v>2.348888270499854</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.59259988881567</v>
+        <v>28.10814331881094</v>
       </c>
       <c r="D64" t="n">
-        <v>2.497974041444226</v>
+        <v>2.086962468230598</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.816702434459</v>
+        <v>26.87629755487957</v>
       </c>
       <c r="D65" t="n">
-        <v>2.518344712240467</v>
+        <v>2.048288186518945</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.78928648819452</v>
+        <v>26.40052292694966</v>
       </c>
       <c r="D66" t="n">
-        <v>2.355054353867764</v>
+        <v>1.858881982228316</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.22802572272487</v>
+        <v>25.02665548294685</v>
       </c>
       <c r="D67" t="n">
-        <v>2.016956347970934</v>
+        <v>2.390214829162925</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.22521510364621</v>
+        <v>24.25048245518243</v>
       </c>
       <c r="D68" t="n">
-        <v>2.343211203935889</v>
+        <v>2.32697058336716</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.76474148230831</v>
+        <v>22.67037201935051</v>
       </c>
       <c r="D69" t="n">
-        <v>2.453453352568276</v>
+        <v>2.158449277049121</v>
       </c>
     </row>
   </sheetData>
